--- a/v2/template v2.xlsx
+++ b/v2/template v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwasa85p\Documents\GitHub\PermuSearch\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECB77EF-17C3-4EF1-9BC7-3CA782611FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F1FB4F-F1BD-49D2-B1E8-005B8A19650C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="179">
   <si>
     <t>X dimension</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>topic</t>
+  </si>
+  <si>
+    <t>venue</t>
   </si>
 </sst>
 </file>
@@ -1634,9 +1637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1672,7 @@
       </c>
       <c r="G1" s="27" t="str">
         <f>IF(SUM(O2:O500)&gt;0,"Warning(s):","")</f>
-        <v/>
+        <v>Warning(s):</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
@@ -1694,7 +1697,7 @@
         <v>176</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>176</v>
@@ -1751,7 +1754,8 @@
       </c>
       <c r="E3" s="32" t="str">
         <f>IF(E2="topic","TITLE-ABS-KEY("&amp;CHAR(34)&amp;"topic search term"&amp;CHAR(34)&amp;")",IF(E2="venue","SOURCE-ID(123456) or"&amp;CHAR(10)&amp;"SRCTITLE("&amp;CHAR(34)&amp;"MIS Quarterly"&amp;CHAR(34)&amp;")",IF(E2="after year","PUBYEAR AFT 2000",IF(E2="before year","PUBYEAR BEF 2000",IF(E2="document type","DOCTYPE(ar)","")))))</f>
-        <v/>
+        <v>SOURCE-ID(123456) or
+SRCTITLE("MIS Quarterly")</v>
       </c>
       <c r="F3" s="32" t="str">
         <f>IF(F2="topic","TITLE-ABS-KEY("&amp;CHAR(34)&amp;"topic search term"&amp;CHAR(34)&amp;")",IF(F2="venue","SOURCE-ID(123456) or"&amp;CHAR(10)&amp;"SRCTITLE("&amp;CHAR(34)&amp;"MIS Quarterly"&amp;CHAR(34)&amp;")",IF(F2="after year","PUBYEAR AFT 2000",IF(F2="before year","PUBYEAR BEF 2000",IF(F2="document type","DOCTYPE(ar)","")))))</f>
@@ -1783,11 +1787,12 @@
       <c r="F4" s="41"/>
       <c r="G4" s="27" t="str">
         <f>LEFT(H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4,MAX(0,LEN(H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4)-1))</f>
-        <v/>
+        <v>At least one dimension or constraint is defined without a value.</v>
       </c>
       <c r="H4" s="28" t="str">
-        <f>IF(OR(AND(ISBLANK(C4),C2&lt;&gt;"not defined"),AND(ISBLANK(D4),D2&lt;&gt;"not defined"),AND(ISBLANK(E4),E2&lt;&gt;"not defined"),AND(ISBLANK(F4),F2&lt;&gt;"not defined")),"provide at least one value for each defined constraint or dimension"&amp;CHAR(10),"")</f>
-        <v/>
+        <f>IF(OR(AND(ISBLANK(C4),C2&lt;&gt;"not defined"),AND(ISBLANK(D4),D2&lt;&gt;"not defined"),AND(ISBLANK(E4),E2&lt;&gt;"not defined"),AND(ISBLANK(F4),F2&lt;&gt;"not defined")),"At least one dimension or constraint is defined without a value."&amp;CHAR(10),"")</f>
+        <v xml:space="preserve">At least one dimension or constraint is defined without a value.
+</v>
       </c>
       <c r="I4" s="46" t="str">
         <f>IFERROR(IF(OR(ISBLANK(B4),RIGHT(B$2,4)="year"),"",IF(SEARCH("(",B4)=SEARCH("(",B$3),"","value in column B is incorrectly formatted"&amp;CHAR(10))),"value in column B is incorrectly formatted"&amp;CHAR(10))</f>
@@ -1810,9 +1815,9 @@
         <v/>
       </c>
       <c r="N4" s="44"/>
-      <c r="O4" s="29" t="str">
+      <c r="O4" s="29">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">

--- a/v2/template v2.xlsx
+++ b/v2/template v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwasa85p\Documents\GitHub\PermuSearch\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F1FB4F-F1BD-49D2-B1E8-005B8A19650C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4409846C-5B8F-4E4C-9E69-69C385717236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="178">
   <si>
     <t>X dimension</t>
   </si>
@@ -573,9 +573,6 @@
   </si>
   <si>
     <t>topic</t>
-  </si>
-  <si>
-    <t>venue</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1669,7 @@
       </c>
       <c r="G1" s="27" t="str">
         <f>IF(SUM(O2:O500)&gt;0,"Warning(s):","")</f>
-        <v>Warning(s):</v>
+        <v/>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
@@ -1697,7 +1694,7 @@
         <v>176</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>176</v>
@@ -1754,8 +1751,7 @@
       </c>
       <c r="E3" s="32" t="str">
         <f>IF(E2="topic","TITLE-ABS-KEY("&amp;CHAR(34)&amp;"topic search term"&amp;CHAR(34)&amp;")",IF(E2="venue","SOURCE-ID(123456) or"&amp;CHAR(10)&amp;"SRCTITLE("&amp;CHAR(34)&amp;"MIS Quarterly"&amp;CHAR(34)&amp;")",IF(E2="after year","PUBYEAR AFT 2000",IF(E2="before year","PUBYEAR BEF 2000",IF(E2="document type","DOCTYPE(ar)","")))))</f>
-        <v>SOURCE-ID(123456) or
-SRCTITLE("MIS Quarterly")</v>
+        <v/>
       </c>
       <c r="F3" s="32" t="str">
         <f>IF(F2="topic","TITLE-ABS-KEY("&amp;CHAR(34)&amp;"topic search term"&amp;CHAR(34)&amp;")",IF(F2="venue","SOURCE-ID(123456) or"&amp;CHAR(10)&amp;"SRCTITLE("&amp;CHAR(34)&amp;"MIS Quarterly"&amp;CHAR(34)&amp;")",IF(F2="after year","PUBYEAR AFT 2000",IF(F2="before year","PUBYEAR BEF 2000",IF(F2="document type","DOCTYPE(ar)","")))))</f>
@@ -1787,12 +1783,11 @@
       <c r="F4" s="41"/>
       <c r="G4" s="27" t="str">
         <f>LEFT(H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4,MAX(0,LEN(H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4)-1))</f>
-        <v>At least one dimension or constraint is defined without a value.</v>
+        <v/>
       </c>
       <c r="H4" s="28" t="str">
         <f>IF(OR(AND(ISBLANK(C4),C2&lt;&gt;"not defined"),AND(ISBLANK(D4),D2&lt;&gt;"not defined"),AND(ISBLANK(E4),E2&lt;&gt;"not defined"),AND(ISBLANK(F4),F2&lt;&gt;"not defined")),"At least one dimension or constraint is defined without a value."&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">At least one dimension or constraint is defined without a value.
-</v>
+        <v/>
       </c>
       <c r="I4" s="46" t="str">
         <f>IFERROR(IF(OR(ISBLANK(B4),RIGHT(B$2,4)="year"),"",IF(SEARCH("(",B4)=SEARCH("(",B$3),"","value in column B is incorrectly formatted"&amp;CHAR(10))),"value in column B is incorrectly formatted"&amp;CHAR(10))</f>
@@ -1815,9 +1810,9 @@
         <v/>
       </c>
       <c r="N4" s="44"/>
-      <c r="O4" s="29">
+      <c r="O4" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
